--- a/trades_sample.xlsx
+++ b/trades_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\trade_converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\git\trade_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,7 +1482,7 @@
         <v>Oct_CLOBond_12229_001</v>
       </c>
       <c r="F8">
-        <v>21815</v>
+        <v>12229</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>46</v>
@@ -1531,7 +1531,10 @@
         <v>12</v>
       </c>
       <c r="W8" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="X8">
+        <v>0.12570000000000001</v>
       </c>
       <c r="Y8" t="s">
         <v>12</v>
